--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -48561,13 +48561,13 @@
         <v>1703</v>
       </c>
       <c r="F1666" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="G1666" t="n">
-        <v>688.0</v>
+        <v>747.0</v>
       </c>
       <c r="H1666" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="1667">
@@ -48587,13 +48587,13 @@
         <v>1703</v>
       </c>
       <c r="F1667" t="n">
-        <v>6198.0</v>
+        <v>6257.0</v>
       </c>
       <c r="G1667" t="n">
-        <v>163449.0</v>
+        <v>163508.0</v>
       </c>
       <c r="H1667" t="n">
-        <v>11174.0</v>
+        <v>11175.0</v>
       </c>
     </row>
     <row r="1668">
@@ -48717,13 +48717,13 @@
         <v>1703</v>
       </c>
       <c r="F1672" t="n">
-        <v>249.0</v>
+        <v>257.0</v>
       </c>
       <c r="G1672" t="n">
-        <v>5808.0</v>
+        <v>5816.0</v>
       </c>
       <c r="H1672" t="n">
-        <v>211.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="1673">
@@ -48847,13 +48847,13 @@
         <v>1703</v>
       </c>
       <c r="F1677" t="n">
-        <v>0.0</v>
+        <v>382.0</v>
       </c>
       <c r="G1677" t="n">
-        <v>8144.0</v>
+        <v>8526.0</v>
       </c>
       <c r="H1677" t="n">
-        <v>399.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="1678">
@@ -48957,7 +48957,7 @@
         <v>8069.0</v>
       </c>
       <c r="H1681" t="n">
-        <v>708.0</v>
+        <v>812.0</v>
       </c>
     </row>
     <row r="1682">
@@ -49029,13 +49029,13 @@
         <v>1703</v>
       </c>
       <c r="F1684" t="n">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
       <c r="G1684" t="n">
-        <v>1332.0</v>
+        <v>1443.0</v>
       </c>
       <c r="H1684" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="1685">
@@ -49055,13 +49055,13 @@
         <v>1703</v>
       </c>
       <c r="F1685" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G1685" t="n">
-        <v>1859.0</v>
+        <v>1873.0</v>
       </c>
       <c r="H1685" t="n">
-        <v>112.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="1686">
@@ -49133,10 +49133,10 @@
         <v>1703</v>
       </c>
       <c r="F1688" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="G1688" t="n">
-        <v>1396.0</v>
+        <v>1398.0</v>
       </c>
       <c r="H1688" t="n">
         <v>47.0</v>
@@ -49159,13 +49159,13 @@
         <v>1703</v>
       </c>
       <c r="F1689" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="G1689" t="n">
-        <v>1295.0</v>
+        <v>1328.0</v>
       </c>
       <c r="H1689" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="1690">
@@ -49289,7 +49289,7 @@
         <v>1703</v>
       </c>
       <c r="F1694" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="G1694" t="n">
         <v>747.0</v>
@@ -49315,13 +49315,13 @@
         <v>1703</v>
       </c>
       <c r="F1695" t="n">
-        <v>5650.0</v>
+        <v>6141.0</v>
       </c>
       <c r="G1695" t="n">
-        <v>169099.0</v>
+        <v>169649.0</v>
       </c>
       <c r="H1695" t="n">
-        <v>11520.0</v>
+        <v>11660.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -49373,13 +49373,13 @@
         <v>1731</v>
       </c>
       <c r="F1694" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="G1694" t="n">
-        <v>747.0</v>
+        <v>828.0</v>
       </c>
       <c r="H1694" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="1695">
@@ -49399,13 +49399,13 @@
         <v>1731</v>
       </c>
       <c r="F1695" t="n">
-        <v>6100.0</v>
+        <v>6181.0</v>
       </c>
       <c r="G1695" t="n">
-        <v>169608.0</v>
+        <v>169689.0</v>
       </c>
       <c r="H1695" t="n">
-        <v>11656.0</v>
+        <v>11658.0</v>
       </c>
     </row>
     <row r="1696">
@@ -49529,10 +49529,10 @@
         <v>1731</v>
       </c>
       <c r="F1700" t="n">
-        <v>396.0</v>
+        <v>397.0</v>
       </c>
       <c r="G1700" t="n">
-        <v>6204.0</v>
+        <v>6205.0</v>
       </c>
       <c r="H1700" t="n">
         <v>225.0</v>
@@ -49659,13 +49659,13 @@
         <v>1731</v>
       </c>
       <c r="F1705" t="n">
-        <v>0.0</v>
+        <v>586.0</v>
       </c>
       <c r="G1705" t="n">
-        <v>8526.0</v>
+        <v>9112.0</v>
       </c>
       <c r="H1705" t="n">
-        <v>423.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="1706">
@@ -49743,7 +49743,7 @@
         <v>604.0</v>
       </c>
       <c r="H1708" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1709">
@@ -49841,13 +49841,13 @@
         <v>1731</v>
       </c>
       <c r="F1712" t="n">
-        <v>0.0</v>
+        <v>169.0</v>
       </c>
       <c r="G1712" t="n">
-        <v>1443.0</v>
+        <v>1612.0</v>
       </c>
       <c r="H1712" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="1713">
@@ -49971,13 +49971,13 @@
         <v>1731</v>
       </c>
       <c r="F1717" t="n">
-        <v>33.0</v>
+        <v>116.0</v>
       </c>
       <c r="G1717" t="n">
-        <v>1328.0</v>
+        <v>1411.0</v>
       </c>
       <c r="H1717" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="1718">
@@ -50101,7 +50101,7 @@
         <v>1731</v>
       </c>
       <c r="F1722" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="G1722" t="n">
         <v>828.0</v>
@@ -50127,13 +50127,13 @@
         <v>1731</v>
       </c>
       <c r="F1723" t="n">
-        <v>8437.0</v>
+        <v>9195.0</v>
       </c>
       <c r="G1723" t="n">
-        <v>178045.0</v>
+        <v>178884.0</v>
       </c>
       <c r="H1723" t="n">
-        <v>12450.0</v>
+        <v>12481.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -53803,13 +53803,13 @@
         <v>1899</v>
       </c>
       <c r="F1845" t="n">
-        <v>0.0</v>
+        <v>746.0</v>
       </c>
       <c r="G1845" t="n">
-        <v>12492.0</v>
+        <v>13238.0</v>
       </c>
       <c r="H1845" t="n">
-        <v>549.0</v>
+        <v>576.0</v>
       </c>
     </row>
     <row r="1846">
@@ -53907,13 +53907,13 @@
         <v>1899</v>
       </c>
       <c r="F1849" t="n">
-        <v>400.0</v>
+        <v>737.0</v>
       </c>
       <c r="G1849" t="n">
-        <v>13864.0</v>
+        <v>14201.0</v>
       </c>
       <c r="H1849" t="n">
-        <v>1239.0</v>
+        <v>1279.0</v>
       </c>
     </row>
     <row r="1850">
@@ -54245,13 +54245,13 @@
         <v>1899</v>
       </c>
       <c r="F1862" t="n">
-        <v>103.0</v>
+        <v>217.0</v>
       </c>
       <c r="G1862" t="n">
-        <v>1382.0</v>
+        <v>1496.0</v>
       </c>
       <c r="H1862" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="1863">
@@ -54271,13 +54271,13 @@
         <v>1899</v>
       </c>
       <c r="F1863" t="n">
-        <v>6568.0</v>
+        <v>7765.0</v>
       </c>
       <c r="G1863" t="n">
-        <v>241146.0</v>
+        <v>242343.0</v>
       </c>
       <c r="H1863" t="n">
-        <v>16131.0</v>
+        <v>16199.0</v>
       </c>
     </row>
     <row r="1864">
@@ -54433,7 +54433,7 @@
         <v>26363.0</v>
       </c>
       <c r="H1869" t="n">
-        <v>1743.0</v>
+        <v>1748.0</v>
       </c>
     </row>
     <row r="1870">
@@ -54453,10 +54453,10 @@
         <v>1899</v>
       </c>
       <c r="F1870" t="n">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="G1870" t="n">
-        <v>4618.0</v>
+        <v>4619.0</v>
       </c>
       <c r="H1870" t="n">
         <v>66.0</v>
@@ -54531,13 +54531,13 @@
         <v>1899</v>
       </c>
       <c r="F1873" t="n">
-        <v>746.0</v>
+        <v>960.0</v>
       </c>
       <c r="G1873" t="n">
-        <v>13238.0</v>
+        <v>14198.0</v>
       </c>
       <c r="H1873" t="n">
-        <v>576.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="1874">
@@ -54635,13 +54635,13 @@
         <v>1899</v>
       </c>
       <c r="F1877" t="n">
-        <v>1603.0</v>
+        <v>1266.0</v>
       </c>
       <c r="G1877" t="n">
         <v>15467.0</v>
       </c>
       <c r="H1877" t="n">
-        <v>1330.0</v>
+        <v>1392.0</v>
       </c>
     </row>
     <row r="1878">
@@ -54713,13 +54713,13 @@
         <v>1899</v>
       </c>
       <c r="F1880" t="n">
-        <v>0.0</v>
+        <v>153.0</v>
       </c>
       <c r="G1880" t="n">
-        <v>2287.0</v>
+        <v>2440.0</v>
       </c>
       <c r="H1880" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="1881">
@@ -54791,13 +54791,13 @@
         <v>1899</v>
       </c>
       <c r="F1883" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="G1883" t="n">
-        <v>3137.0</v>
+        <v>3184.0</v>
       </c>
       <c r="H1883" t="n">
-        <v>139.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="1884">
@@ -54817,13 +54817,13 @@
         <v>1899</v>
       </c>
       <c r="F1884" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="G1884" t="n">
-        <v>1963.0</v>
+        <v>2043.0</v>
       </c>
       <c r="H1884" t="n">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="1885">
@@ -54849,7 +54849,7 @@
         <v>1876.0</v>
       </c>
       <c r="H1885" t="n">
-        <v>51.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="1886">
@@ -54869,13 +54869,13 @@
         <v>1899</v>
       </c>
       <c r="F1886" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G1886" t="n">
-        <v>3735.0</v>
+        <v>3750.0</v>
       </c>
       <c r="H1886" t="n">
-        <v>144.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="1887">
@@ -54921,13 +54921,13 @@
         <v>1899</v>
       </c>
       <c r="F1888" t="n">
-        <v>0.0</v>
+        <v>223.0</v>
       </c>
       <c r="G1888" t="n">
-        <v>3343.0</v>
+        <v>3566.0</v>
       </c>
       <c r="H1888" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="1889">
@@ -54947,10 +54947,10 @@
         <v>1899</v>
       </c>
       <c r="F1889" t="n">
-        <v>661.0</v>
+        <v>721.0</v>
       </c>
       <c r="G1889" t="n">
-        <v>63006.0</v>
+        <v>63066.0</v>
       </c>
       <c r="H1889" t="n">
         <v>4823.0</v>
@@ -54973,7 +54973,7 @@
         <v>1899</v>
       </c>
       <c r="F1890" t="n">
-        <v>114.0</v>
+        <v>0.0</v>
       </c>
       <c r="G1890" t="n">
         <v>1496.0</v>
@@ -54999,13 +54999,13 @@
         <v>1899</v>
       </c>
       <c r="F1891" t="n">
-        <v>13732.0</v>
+        <v>14074.0</v>
       </c>
       <c r="G1891" t="n">
-        <v>254878.0</v>
+        <v>256417.0</v>
       </c>
       <c r="H1891" t="n">
-        <v>16768.0</v>
+        <v>16902.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -59539,10 +59539,10 @@
         <v>2095</v>
       </c>
       <c r="F2043" t="n">
-        <v>66.0</v>
+        <v>165.0</v>
       </c>
       <c r="G2043" t="n">
-        <v>924.0</v>
+        <v>1023.0</v>
       </c>
       <c r="H2043" t="n">
         <v>17.0</v>
@@ -59747,13 +59747,13 @@
         <v>2095</v>
       </c>
       <c r="F2051" t="n">
-        <v>98.0</v>
+        <v>174.0</v>
       </c>
       <c r="G2051" t="n">
-        <v>4697.0</v>
+        <v>4773.0</v>
       </c>
       <c r="H2051" t="n">
-        <v>200.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="2052">
@@ -59929,10 +59929,10 @@
         <v>2095</v>
       </c>
       <c r="F2058" t="n">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="G2058" t="n">
-        <v>2592.0</v>
+        <v>2591.0</v>
       </c>
       <c r="H2058" t="n">
         <v>52.0</v>
@@ -59955,13 +59955,13 @@
         <v>2095</v>
       </c>
       <c r="F2059" t="n">
-        <v>14189.0</v>
+        <v>14363.0</v>
       </c>
       <c r="G2059" t="n">
-        <v>365754.0</v>
+        <v>365928.0</v>
       </c>
       <c r="H2059" t="n">
-        <v>22843.0</v>
+        <v>22855.0</v>
       </c>
     </row>
     <row r="2060">
@@ -60267,7 +60267,7 @@
         <v>2095</v>
       </c>
       <c r="F2071" t="n">
-        <v>99.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2071" t="n">
         <v>1023.0</v>
@@ -60475,7 +60475,7 @@
         <v>2095</v>
       </c>
       <c r="F2079" t="n">
-        <v>77.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2079" t="n">
         <v>4774.0</v>
@@ -60527,10 +60527,10 @@
         <v>2095</v>
       </c>
       <c r="F2081" t="n">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
       <c r="G2081" t="n">
-        <v>2514.0</v>
+        <v>2564.0</v>
       </c>
       <c r="H2081" t="n">
         <v>86.0</v>
@@ -60660,7 +60660,7 @@
         <v>105.0</v>
       </c>
       <c r="G2086" t="n">
-        <v>2697.0</v>
+        <v>2696.0</v>
       </c>
       <c r="H2086" t="n">
         <v>58.0</v>
@@ -60683,10 +60683,10 @@
         <v>2095</v>
       </c>
       <c r="F2087" t="n">
-        <v>12211.0</v>
+        <v>12086.0</v>
       </c>
       <c r="G2087" t="n">
-        <v>377965.0</v>
+        <v>378014.0</v>
       </c>
       <c r="H2087" t="n">
         <v>23580.0</v>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -61429,7 +61429,7 @@
         <v>2583.0</v>
       </c>
       <c r="H2109" t="n">
-        <v>710.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="2110">
@@ -61585,7 +61585,7 @@
         <v>393542.0</v>
       </c>
       <c r="H2115" t="n">
-        <v>25176.0</v>
+        <v>24568.0</v>
       </c>
     </row>
     <row r="2116">
@@ -61923,7 +61923,7 @@
         <v>1909.0</v>
       </c>
       <c r="H2128" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="2129">
@@ -62313,7 +62313,7 @@
         <v>414740.0</v>
       </c>
       <c r="H2143" t="n">
-        <v>25698.0</v>
+        <v>25699.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -61429,7 +61429,7 @@
         <v>2583.0</v>
       </c>
       <c r="H2109" t="n">
-        <v>102.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="2110">
@@ -61585,7 +61585,7 @@
         <v>393542.0</v>
       </c>
       <c r="H2115" t="n">
-        <v>24568.0</v>
+        <v>25176.0</v>
       </c>
     </row>
     <row r="2116">
@@ -61923,7 +61923,7 @@
         <v>1909.0</v>
       </c>
       <c r="H2128" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="2129">
@@ -62313,7 +62313,7 @@
         <v>414740.0</v>
       </c>
       <c r="H2143" t="n">
-        <v>25699.0</v>
+        <v>25698.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -61163,13 +61163,13 @@
         <v>2151</v>
       </c>
       <c r="F2099" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="G2099" t="n">
-        <v>1100.0</v>
+        <v>1186.0</v>
       </c>
       <c r="H2099" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="2100">
@@ -61215,13 +61215,13 @@
         <v>2151</v>
       </c>
       <c r="F2101" t="n">
-        <v>1234.0</v>
+        <v>2516.0</v>
       </c>
       <c r="G2101" t="n">
-        <v>28600.0</v>
+        <v>29882.0</v>
       </c>
       <c r="H2101" t="n">
-        <v>2469.0</v>
+        <v>2516.0</v>
       </c>
     </row>
     <row r="2102">
@@ -61371,13 +61371,13 @@
         <v>2151</v>
       </c>
       <c r="F2107" t="n">
-        <v>1.0</v>
+        <v>157.0</v>
       </c>
       <c r="G2107" t="n">
-        <v>5472.0</v>
+        <v>5628.0</v>
       </c>
       <c r="H2107" t="n">
-        <v>220.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="2108">
@@ -61579,13 +61579,13 @@
         <v>2151</v>
       </c>
       <c r="F2115" t="n">
-        <v>14703.0</v>
+        <v>16227.0</v>
       </c>
       <c r="G2115" t="n">
-        <v>393542.0</v>
+        <v>395066.0</v>
       </c>
       <c r="H2115" t="n">
-        <v>24568.0</v>
+        <v>24638.0</v>
       </c>
     </row>
     <row r="2116">
@@ -61891,7 +61891,7 @@
         <v>2151</v>
       </c>
       <c r="F2127" t="n">
-        <v>86.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2127" t="n">
         <v>1186.0</v>
@@ -61943,7 +61943,7 @@
         <v>2151</v>
       </c>
       <c r="F2129" t="n">
-        <v>3071.0</v>
+        <v>1789.0</v>
       </c>
       <c r="G2129" t="n">
         <v>31671.0</v>
@@ -62047,13 +62047,13 @@
         <v>2151</v>
       </c>
       <c r="F2133" t="n">
-        <v>145.0</v>
+        <v>201.0</v>
       </c>
       <c r="G2133" t="n">
-        <v>3712.0</v>
+        <v>3768.0</v>
       </c>
       <c r="H2133" t="n">
-        <v>162.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="2134">
@@ -62099,7 +62099,7 @@
         <v>2151</v>
       </c>
       <c r="F2135" t="n">
-        <v>158.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2135" t="n">
         <v>5630.0</v>
@@ -62307,13 +62307,13 @@
         <v>2151</v>
       </c>
       <c r="F2143" t="n">
-        <v>21198.0</v>
+        <v>19730.0</v>
       </c>
       <c r="G2143" t="n">
-        <v>414740.0</v>
+        <v>414796.0</v>
       </c>
       <c r="H2143" t="n">
-        <v>25699.0</v>
+        <v>25704.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -65307,10 +65307,10 @@
         <v>2319</v>
       </c>
       <c r="F2239" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="G2239" t="n">
-        <v>1489.0</v>
+        <v>1568.0</v>
       </c>
       <c r="H2239" t="n">
         <v>20.0</v>
@@ -65723,10 +65723,10 @@
         <v>2319</v>
       </c>
       <c r="F2255" t="n">
-        <v>12926.0</v>
+        <v>13005.0</v>
       </c>
       <c r="G2255" t="n">
-        <v>515840.0</v>
+        <v>515919.0</v>
       </c>
       <c r="H2255" t="n">
         <v>29367.0</v>
@@ -66035,7 +66035,7 @@
         <v>2319</v>
       </c>
       <c r="F2267" t="n">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2267" t="n">
         <v>1568.0</v>
@@ -66165,13 +66165,13 @@
         <v>2319</v>
       </c>
       <c r="F2272" t="n">
-        <v>0.0</v>
+        <v>387.0</v>
       </c>
       <c r="G2272" t="n">
-        <v>5119.0</v>
+        <v>5506.0</v>
       </c>
       <c r="H2272" t="n">
-        <v>168.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="2273">
@@ -66451,13 +66451,13 @@
         <v>2319</v>
       </c>
       <c r="F2283" t="n">
-        <v>14338.0</v>
+        <v>14646.0</v>
       </c>
       <c r="G2283" t="n">
-        <v>530178.0</v>
+        <v>530565.0</v>
       </c>
       <c r="H2283" t="n">
-        <v>30058.0</v>
+        <v>30070.0</v>
       </c>
     </row>
     <row r="2284">
@@ -66477,13 +66477,13 @@
         <v>2319</v>
       </c>
       <c r="F2284" t="n">
-        <v>0.0</v>
+        <v>139.0</v>
       </c>
       <c r="G2284" t="n">
-        <v>6326.0</v>
+        <v>6465.0</v>
       </c>
       <c r="H2284" t="n">
-        <v>161.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="2285">
@@ -66503,13 +66503,13 @@
         <v>2319</v>
       </c>
       <c r="F2285" t="n">
-        <v>0.0</v>
+        <v>722.0</v>
       </c>
       <c r="G2285" t="n">
-        <v>10837.0</v>
+        <v>11559.0</v>
       </c>
       <c r="H2285" t="n">
-        <v>461.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="2286">
@@ -66529,13 +66529,13 @@
         <v>2319</v>
       </c>
       <c r="F2286" t="n">
-        <v>0.0</v>
+        <v>1421.0</v>
       </c>
       <c r="G2286" t="n">
-        <v>41774.0</v>
+        <v>43195.0</v>
       </c>
       <c r="H2286" t="n">
-        <v>2071.0</v>
+        <v>2102.0</v>
       </c>
     </row>
     <row r="2287">
@@ -66555,13 +66555,13 @@
         <v>2319</v>
       </c>
       <c r="F2287" t="n">
-        <v>0.0</v>
+        <v>621.0</v>
       </c>
       <c r="G2287" t="n">
-        <v>9890.0</v>
+        <v>10511.0</v>
       </c>
       <c r="H2287" t="n">
-        <v>228.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="2288">
@@ -66581,13 +66581,13 @@
         <v>2319</v>
       </c>
       <c r="F2288" t="n">
-        <v>0.0</v>
+        <v>2532.0</v>
       </c>
       <c r="G2288" t="n">
-        <v>18898.0</v>
+        <v>21430.0</v>
       </c>
       <c r="H2288" t="n">
-        <v>701.0</v>
+        <v>736.0</v>
       </c>
     </row>
     <row r="2289">
@@ -66607,13 +66607,13 @@
         <v>2319</v>
       </c>
       <c r="F2289" t="n">
-        <v>0.0</v>
+        <v>4179.0</v>
       </c>
       <c r="G2289" t="n">
-        <v>50504.0</v>
+        <v>54683.0</v>
       </c>
       <c r="H2289" t="n">
-        <v>3188.0</v>
+        <v>3504.0</v>
       </c>
     </row>
     <row r="2290">
@@ -66633,13 +66633,13 @@
         <v>2319</v>
       </c>
       <c r="F2290" t="n">
-        <v>138.0</v>
+        <v>746.0</v>
       </c>
       <c r="G2290" t="n">
-        <v>10648.0</v>
+        <v>11256.0</v>
       </c>
       <c r="H2290" t="n">
-        <v>171.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="2291">
@@ -66659,13 +66659,13 @@
         <v>2319</v>
       </c>
       <c r="F2291" t="n">
-        <v>216.0</v>
+        <v>1082.0</v>
       </c>
       <c r="G2291" t="n">
-        <v>14285.0</v>
+        <v>15151.0</v>
       </c>
       <c r="H2291" t="n">
-        <v>628.0</v>
+        <v>664.0</v>
       </c>
     </row>
     <row r="2292">
@@ -66685,13 +66685,13 @@
         <v>2319</v>
       </c>
       <c r="F2292" t="n">
-        <v>188.0</v>
+        <v>413.0</v>
       </c>
       <c r="G2292" t="n">
-        <v>4205.0</v>
+        <v>4430.0</v>
       </c>
       <c r="H2292" t="n">
-        <v>139.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="2293">
@@ -66711,10 +66711,10 @@
         <v>2319</v>
       </c>
       <c r="F2293" t="n">
-        <v>0.0</v>
+        <v>1549.0</v>
       </c>
       <c r="G2293" t="n">
-        <v>36625.0</v>
+        <v>38174.0</v>
       </c>
       <c r="H2293" t="n">
         <v>997.0</v>
@@ -66763,10 +66763,10 @@
         <v>2319</v>
       </c>
       <c r="F2295" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="G2295" t="n">
-        <v>1646.0</v>
+        <v>1647.0</v>
       </c>
       <c r="H2295" t="n">
         <v>20.0</v>
@@ -66789,13 +66789,13 @@
         <v>2319</v>
       </c>
       <c r="F2296" t="n">
-        <v>0.0</v>
+        <v>181.0</v>
       </c>
       <c r="G2296" t="n">
-        <v>2636.0</v>
+        <v>2817.0</v>
       </c>
       <c r="H2296" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="2297">
@@ -66815,13 +66815,13 @@
         <v>2319</v>
       </c>
       <c r="F2297" t="n">
-        <v>2333.0</v>
+        <v>3638.0</v>
       </c>
       <c r="G2297" t="n">
-        <v>42347.0</v>
+        <v>43652.0</v>
       </c>
       <c r="H2297" t="n">
-        <v>3040.0</v>
+        <v>3144.0</v>
       </c>
     </row>
     <row r="2298">
@@ -66841,13 +66841,13 @@
         <v>2319</v>
       </c>
       <c r="F2298" t="n">
-        <v>0.0</v>
+        <v>1164.0</v>
       </c>
       <c r="G2298" t="n">
-        <v>13695.0</v>
+        <v>14859.0</v>
       </c>
       <c r="H2298" t="n">
-        <v>370.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="2299">
@@ -66893,13 +66893,13 @@
         <v>2319</v>
       </c>
       <c r="F2300" t="n">
-        <v>387.0</v>
+        <v>322.0</v>
       </c>
       <c r="G2300" t="n">
-        <v>5506.0</v>
+        <v>5828.0</v>
       </c>
       <c r="H2300" t="n">
-        <v>180.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="2301">
@@ -66919,13 +66919,13 @@
         <v>2319</v>
       </c>
       <c r="F2301" t="n">
-        <v>0.0</v>
+        <v>263.0</v>
       </c>
       <c r="G2301" t="n">
-        <v>4900.0</v>
+        <v>5163.0</v>
       </c>
       <c r="H2301" t="n">
-        <v>195.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="2302">
@@ -66945,13 +66945,13 @@
         <v>2319</v>
       </c>
       <c r="F2302" t="n">
-        <v>0.0</v>
+        <v>2202.0</v>
       </c>
       <c r="G2302" t="n">
-        <v>54530.0</v>
+        <v>56732.0</v>
       </c>
       <c r="H2302" t="n">
-        <v>5462.0</v>
+        <v>5686.0</v>
       </c>
     </row>
     <row r="2303">
@@ -66971,13 +66971,13 @@
         <v>2319</v>
       </c>
       <c r="F2303" t="n">
-        <v>44.0</v>
+        <v>269.0</v>
       </c>
       <c r="G2303" t="n">
-        <v>8008.0</v>
+        <v>8233.0</v>
       </c>
       <c r="H2303" t="n">
-        <v>323.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="2304">
@@ -66997,13 +66997,13 @@
         <v>2319</v>
       </c>
       <c r="F2304" t="n">
-        <v>0.0</v>
+        <v>305.0</v>
       </c>
       <c r="G2304" t="n">
-        <v>5172.0</v>
+        <v>5477.0</v>
       </c>
       <c r="H2304" t="n">
-        <v>159.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="2305">
@@ -67049,13 +67049,13 @@
         <v>2319</v>
       </c>
       <c r="F2306" t="n">
-        <v>0.0</v>
+        <v>423.0</v>
       </c>
       <c r="G2306" t="n">
-        <v>9496.0</v>
+        <v>9919.0</v>
       </c>
       <c r="H2306" t="n">
-        <v>232.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="2307">
@@ -67075,13 +67075,13 @@
         <v>2319</v>
       </c>
       <c r="F2307" t="n">
-        <v>0.0</v>
+        <v>162.0</v>
       </c>
       <c r="G2307" t="n">
-        <v>9498.0</v>
+        <v>9660.0</v>
       </c>
       <c r="H2307" t="n">
-        <v>146.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="2308">
@@ -67101,13 +67101,13 @@
         <v>2319</v>
       </c>
       <c r="F2308" t="n">
-        <v>0.0</v>
+        <v>322.0</v>
       </c>
       <c r="G2308" t="n">
-        <v>7233.0</v>
+        <v>7555.0</v>
       </c>
       <c r="H2308" t="n">
-        <v>166.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="2309">
@@ -67179,13 +67179,13 @@
         <v>2319</v>
       </c>
       <c r="F2311" t="n">
-        <v>11556.0</v>
+        <v>30906.0</v>
       </c>
       <c r="G2311" t="n">
-        <v>541734.0</v>
+        <v>561471.0</v>
       </c>
       <c r="H2311" t="n">
-        <v>30520.0</v>
+        <v>31398.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -66717,7 +66717,7 @@
         <v>38174.0</v>
       </c>
       <c r="H2293" t="n">
-        <v>997.0</v>
+        <v>1028.0</v>
       </c>
     </row>
     <row r="2294">
@@ -66795,7 +66795,7 @@
         <v>2817.0</v>
       </c>
       <c r="H2296" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="2297">
@@ -67023,13 +67023,13 @@
         <v>2319</v>
       </c>
       <c r="F2305" t="n">
-        <v>158.0</v>
+        <v>451.0</v>
       </c>
       <c r="G2305" t="n">
-        <v>3850.0</v>
+        <v>4143.0</v>
       </c>
       <c r="H2305" t="n">
-        <v>120.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="2306">
@@ -67179,13 +67179,13 @@
         <v>2319</v>
       </c>
       <c r="F2311" t="n">
-        <v>30906.0</v>
+        <v>31199.0</v>
       </c>
       <c r="G2311" t="n">
-        <v>561471.0</v>
+        <v>561764.0</v>
       </c>
       <c r="H2311" t="n">
-        <v>31398.0</v>
+        <v>31438.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -76331,13 +76331,13 @@
         <v>2683</v>
       </c>
       <c r="F2621" t="n">
-        <v>1313.0</v>
+        <v>1312.0</v>
       </c>
       <c r="G2621" t="n">
-        <v>22200.0</v>
+        <v>22199.0</v>
       </c>
       <c r="H2621" t="n">
-        <v>745.0</v>
+        <v>744.0</v>
       </c>
     </row>
     <row r="2622">
@@ -76799,13 +76799,13 @@
         <v>2683</v>
       </c>
       <c r="F2639" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="G2639" t="n">
-        <v>14171.0</v>
+        <v>14214.0</v>
       </c>
       <c r="H2639" t="n">
-        <v>534.0</v>
+        <v>553.0</v>
       </c>
     </row>
     <row r="2640">
@@ -76851,13 +76851,13 @@
         <v>2683</v>
       </c>
       <c r="F2641" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2641" t="n">
-        <v>6875.0</v>
+        <v>6881.0</v>
       </c>
       <c r="H2641" t="n">
-        <v>200.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="2642">
@@ -76981,13 +76981,13 @@
         <v>2683</v>
       </c>
       <c r="F2646" t="n">
-        <v>0.0</v>
+        <v>165.0</v>
       </c>
       <c r="G2646" t="n">
-        <v>6972.0</v>
+        <v>7137.0</v>
       </c>
       <c r="H2646" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="2647">
@@ -77007,13 +77007,13 @@
         <v>2683</v>
       </c>
       <c r="F2647" t="n">
-        <v>16581.0</v>
+        <v>16794.0</v>
       </c>
       <c r="G2647" t="n">
-        <v>868492.0</v>
+        <v>868705.0</v>
       </c>
       <c r="H2647" t="n">
-        <v>43401.0</v>
+        <v>43426.0</v>
       </c>
     </row>
     <row r="2648">
@@ -77059,7 +77059,7 @@
         <v>2683</v>
       </c>
       <c r="F2649" t="n">
-        <v>762.0</v>
+        <v>763.0</v>
       </c>
       <c r="G2649" t="n">
         <v>22962.0</v>
@@ -77241,10 +77241,10 @@
         <v>2683</v>
       </c>
       <c r="F2656" t="n">
-        <v>2481.0</v>
+        <v>2606.0</v>
       </c>
       <c r="G2656" t="n">
-        <v>10441.0</v>
+        <v>10566.0</v>
       </c>
       <c r="H2656" t="n">
         <v>238.0</v>
@@ -77345,13 +77345,13 @@
         <v>2683</v>
       </c>
       <c r="F2660" t="n">
-        <v>77.0</v>
+        <v>282.0</v>
       </c>
       <c r="G2660" t="n">
-        <v>6185.0</v>
+        <v>6390.0</v>
       </c>
       <c r="H2660" t="n">
-        <v>216.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="2661">
@@ -77449,13 +77449,13 @@
         <v>2683</v>
       </c>
       <c r="F2664" t="n">
-        <v>0.0</v>
+        <v>524.0</v>
       </c>
       <c r="G2664" t="n">
-        <v>10357.0</v>
+        <v>10881.0</v>
       </c>
       <c r="H2664" t="n">
-        <v>374.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="2665">
@@ -77475,13 +77475,13 @@
         <v>2683</v>
       </c>
       <c r="F2665" t="n">
-        <v>10.0</v>
+        <v>133.0</v>
       </c>
       <c r="G2665" t="n">
-        <v>9716.0</v>
+        <v>9839.0</v>
       </c>
       <c r="H2665" t="n">
-        <v>334.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="2666">
@@ -77527,7 +77527,7 @@
         <v>2683</v>
       </c>
       <c r="F2667" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2667" t="n">
         <v>14214.0</v>
@@ -77579,13 +77579,13 @@
         <v>2683</v>
       </c>
       <c r="F2669" t="n">
-        <v>6.0</v>
+        <v>54.0</v>
       </c>
       <c r="G2669" t="n">
-        <v>6881.0</v>
+        <v>6935.0</v>
       </c>
       <c r="H2669" t="n">
-        <v>203.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="2670">
@@ -77709,7 +77709,7 @@
         <v>2683</v>
       </c>
       <c r="F2674" t="n">
-        <v>165.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2674" t="n">
         <v>7137.0</v>
@@ -77735,13 +77735,13 @@
         <v>2683</v>
       </c>
       <c r="F2675" t="n">
-        <v>22519.0</v>
+        <v>23337.0</v>
       </c>
       <c r="G2675" t="n">
-        <v>891011.0</v>
+        <v>892042.0</v>
       </c>
       <c r="H2675" t="n">
-        <v>44104.0</v>
+        <v>44151.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base.xlsx
+++ b/docs/excel_base.xlsx
@@ -84445,10 +84445,10 @@
         <v>2935</v>
       </c>
       <c r="F2904" t="n">
-        <v>2846.0</v>
+        <v>2847.0</v>
       </c>
       <c r="G2904" t="n">
-        <v>51931.0</v>
+        <v>51932.0</v>
       </c>
       <c r="H2904" t="n">
         <v>1541.0</v>
@@ -85043,10 +85043,10 @@
         <v>2935</v>
       </c>
       <c r="F2927" t="n">
-        <v>39536.0</v>
+        <v>39537.0</v>
       </c>
       <c r="G2927" t="n">
-        <v>1193761.0</v>
+        <v>1193762.0</v>
       </c>
       <c r="H2927" t="n">
         <v>53897.0</v>
